--- a/Examples_raman_of_carbon/Carbon Analysis_GC and PC.xlsx
+++ b/Examples_raman_of_carbon/Carbon Analysis_GC and PC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/mtw5027_psu_edu/Documents/N017 Computer/Characterization/Raman/2021/Vlabinir/2021-3-24_Derek Hall_Electrode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\z_PROJECTS\MCL Project\Raman-Peak-Fitting-Model\Examples_raman_of_carbon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{3AA9F234-F7BB-47B6-AEF2-3437FBF2BF7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D8CC572C-1E41-46FE-923B-8C4187F2ABC4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B412F4E-D514-4199-A4BF-866A3ED12FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GC" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="39">
   <si>
     <t>p</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>PC-BASAL</t>
+  </si>
+  <si>
+    <t>amplitude</t>
+  </si>
+  <si>
+    <t>fwhm</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -463,22 +472,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -498,21 +507,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -530,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -568,7 +577,7 @@
         <v>43821.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -606,7 +615,7 @@
         <v>116549</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -644,7 +653,7 @@
         <v>11845.9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -682,7 +691,7 @@
         <v>5484.37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -720,7 +729,7 @@
         <v>13454.8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -758,7 +767,7 @@
         <v>9337.32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -778,7 +787,7 @@
         <v>9337.76</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -798,7 +807,7 @@
         <v>40017.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -818,7 +827,7 @@
         <v>5245.8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -838,7 +847,7 @@
         <v>9560.26</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -858,7 +867,7 @@
         <v>7402.97</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>18</v>
       </c>
@@ -869,7 +878,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -904,7 +913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>1241/633</f>
         <v>1.9605055292259084</v>
@@ -940,7 +949,7 @@
         <v>59.914200000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>1241/532</f>
         <v>2.3327067669172932</v>
@@ -984,7 +993,7 @@
         <v>62.119599999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>-95.665300000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>54.710878348997262</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>31</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>1.7291936639147729</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>633</v>
       </c>
@@ -1060,7 +1069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1097,7 @@
         <v>2.3141273553303736</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>0.27521573080925343</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1131,7 @@
         <v>7.6861787903478378</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>29</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>43.768244814915811</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
         <v>31</v>
       </c>
@@ -1153,18 +1162,18 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>91691.6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>43102.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>5223.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>19680</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1406,7 +1415,7 @@
         <v>14326.6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>23818.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1446,7 +1455,7 @@
         <v>30265.1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>9156.8700000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>6609.85</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1506,7 +1515,7 @@
         <v>15762.1</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>1241/633</f>
         <v>1.9605055292259084</v>
@@ -1591,7 +1600,7 @@
         <v>22.911899999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>1241/532</f>
         <v>2.3327067669172932</v>
@@ -1631,7 +1640,7 @@
         <v>22.604099999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>5.3546194609274469</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>31</v>
       </c>
@@ -1698,7 +1707,7 @@
         <v>0.26018673337653486</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>633</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
         <v>19</v>
       </c>
@@ -1717,7 +1726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>20</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>0.3161412939094041</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>5.3094482055694857E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>6.5573789432360794</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>29</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>5.0943447615234314</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
         <v>31</v>
       </c>
@@ -1799,18 +1808,18 @@
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +1871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>45144.800000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1938,7 +1947,7 @@
         <v>60355.1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1976,7 +1985,7 @@
         <v>6697.05</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>12031.1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2052,7 +2061,7 @@
         <v>5025.72</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>8592.01</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>24140.3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2130,7 +2139,7 @@
         <v>4698.54</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>2513.61</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2170,7 +2179,7 @@
         <v>10092</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>1241/633</f>
         <v>1.9605055292259084</v>
@@ -2255,7 +2264,7 @@
         <v>24.226099999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>1241/532</f>
         <v>2.3327067669172932</v>
@@ -2295,7 +2304,7 @@
         <v>23.2926</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>14.431898394211409</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>31</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>0.65249936866817593</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>633</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
         <v>19</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>20</v>
       </c>
@@ -2399,7 +2408,7 @@
         <v>0.91146165193381501</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>23</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>0.1352350143471521</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>24</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>7.3532852554825476</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>29</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>16.950789759092437</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
         <v>31</v>
       </c>
